--- a/acmpa-matr.xlsx
+++ b/acmpa-matr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26806BB-50FF-4A09-908C-D36BB0064777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBF9AA-1657-4217-AECC-1765DF464836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14595" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{8D8C8DAF-9C79-4D78-99BA-31B95AFA6C6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D8C8DAF-9C79-4D78-99BA-31B95AFA6C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Дано: 3 сотрудника, зарплата в рублях</t>
   </si>
@@ -61,18 +61,6 @@
     <t>Ожидаемый результат:</t>
   </si>
   <si>
-    <t>Фактический результат:</t>
-  </si>
-  <si>
-    <t>Тест пройден</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Условия: </t>
-  </si>
-  <si>
-    <t>данные введены корректно, через пробел</t>
-  </si>
-  <si>
     <t>Тест 2</t>
   </si>
   <si>
@@ -98,24 +86,58 @@
   </si>
   <si>
     <t>10 20 20</t>
+  </si>
+  <si>
+    <t>1 100000 5000</t>
+  </si>
+  <si>
+    <t>1 5000 100000</t>
+  </si>
+  <si>
+    <t>Тест 6</t>
+  </si>
+  <si>
+    <t>Тест 7</t>
+  </si>
+  <si>
+    <t>Тест 8</t>
+  </si>
+  <si>
+    <t>20 10 20</t>
+  </si>
+  <si>
+    <t>Тест 9</t>
+  </si>
+  <si>
+    <t>20 20 10</t>
+  </si>
+  <si>
+    <t>Тест 10</t>
+  </si>
+  <si>
+    <t>10 20 10</t>
+  </si>
+  <si>
+    <t>Тест 11</t>
+  </si>
+  <si>
+    <t>20 10 10</t>
+  </si>
+  <si>
+    <t>Тест 12</t>
+  </si>
+  <si>
+    <t>10 10 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -131,17 +153,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,20 +170,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8518CD96-D768-4A1D-889C-F9561A0D6ADE}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +530,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -536,164 +550,143 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>99999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>99999</v>
+      <c r="A24" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>99999</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>16</v>
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="A32" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>20</v>
+      <c r="A36" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,24 +697,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
+      <c r="A40" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
         <v>10</v>
       </c>
     </row>
